--- a/SchedulingData/dynamic14/pso/scheduling1_17.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_17.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.76000000000001</v>
+        <v>44.16</v>
       </c>
       <c r="E2" t="n">
-        <v>26.784</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>141.14</v>
+        <v>61.66</v>
       </c>
       <c r="E3" t="n">
-        <v>22.676</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>141.14</v>
+        <v>61.66</v>
       </c>
       <c r="D4" t="n">
-        <v>205.44</v>
+        <v>138.38</v>
       </c>
       <c r="E4" t="n">
-        <v>18.356</v>
+        <v>22.952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.44</v>
+        <v>60.5</v>
       </c>
       <c r="E5" t="n">
-        <v>26.256</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66.76000000000001</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.524</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="7">
@@ -561,112 +561,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66.76000000000001</v>
+        <v>138.38</v>
       </c>
       <c r="D7" t="n">
-        <v>128.76</v>
+        <v>199.58</v>
       </c>
       <c r="E7" t="n">
-        <v>22.444</v>
+        <v>20.432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>128.76</v>
+        <v>60.5</v>
       </c>
       <c r="D8" t="n">
-        <v>179.18</v>
+        <v>114.16</v>
       </c>
       <c r="E8" t="n">
-        <v>19.532</v>
+        <v>21.884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>114.16</v>
       </c>
       <c r="D9" t="n">
-        <v>44.16</v>
+        <v>185.68</v>
       </c>
       <c r="E9" t="n">
-        <v>27.264</v>
+        <v>17.852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>44.44</v>
+        <v>199.58</v>
       </c>
       <c r="D10" t="n">
-        <v>120.56</v>
+        <v>244.76</v>
       </c>
       <c r="E10" t="n">
-        <v>22.224</v>
+        <v>17.044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>120.56</v>
+        <v>44.16</v>
       </c>
       <c r="D11" t="n">
-        <v>156.88</v>
+        <v>91.36</v>
       </c>
       <c r="E11" t="n">
-        <v>19.232</v>
+        <v>23.184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>156.88</v>
+        <v>185.68</v>
       </c>
       <c r="D12" t="n">
-        <v>224.48</v>
+        <v>240.48</v>
       </c>
       <c r="E12" t="n">
-        <v>15.072</v>
+        <v>14.012</v>
       </c>
     </row>
     <row r="13">
@@ -675,33 +675,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>224.48</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>277.18</v>
+        <v>79.52</v>
       </c>
       <c r="E13" t="n">
-        <v>11.432</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44.16</v>
+        <v>79.52</v>
       </c>
       <c r="D14" t="n">
-        <v>115.36</v>
+        <v>119.86</v>
       </c>
       <c r="E14" t="n">
         <v>22.784</v>
@@ -709,230 +709,230 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>205.44</v>
+        <v>244.76</v>
       </c>
       <c r="D15" t="n">
-        <v>235.6</v>
+        <v>303.06</v>
       </c>
       <c r="E15" t="n">
-        <v>15.98</v>
+        <v>13.324</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>179.18</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>224.36</v>
+        <v>153.24</v>
       </c>
       <c r="E16" t="n">
-        <v>16.144</v>
+        <v>22.936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>224.36</v>
+        <v>91.36</v>
       </c>
       <c r="D17" t="n">
-        <v>282.46</v>
+        <v>140.1</v>
       </c>
       <c r="E17" t="n">
-        <v>11.464</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>115.36</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>168.26</v>
+        <v>67.78</v>
       </c>
       <c r="E18" t="n">
-        <v>20.584</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>277.18</v>
+        <v>153.24</v>
       </c>
       <c r="D19" t="n">
-        <v>345.54</v>
+        <v>192.14</v>
       </c>
       <c r="E19" t="n">
-        <v>7.736</v>
+        <v>20.176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>168.26</v>
+        <v>119.86</v>
       </c>
       <c r="D20" t="n">
-        <v>226.66</v>
+        <v>192.86</v>
       </c>
       <c r="E20" t="n">
-        <v>16.864</v>
+        <v>18.104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>192.14</v>
       </c>
       <c r="D21" t="n">
-        <v>47.8</v>
+        <v>234.3</v>
       </c>
       <c r="E21" t="n">
-        <v>25.92</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>303.06</v>
       </c>
       <c r="D22" t="n">
-        <v>53.12</v>
+        <v>346.94</v>
       </c>
       <c r="E22" t="n">
-        <v>27.348</v>
+        <v>10.076</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53.12</v>
+        <v>192.86</v>
       </c>
       <c r="D23" t="n">
-        <v>117.6</v>
+        <v>251.02</v>
       </c>
       <c r="E23" t="n">
-        <v>23.5</v>
+        <v>14.408</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>226.66</v>
+        <v>240.48</v>
       </c>
       <c r="D24" t="n">
-        <v>280.3</v>
+        <v>281.8</v>
       </c>
       <c r="E24" t="n">
-        <v>13.12</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>280.3</v>
+        <v>67.78</v>
       </c>
       <c r="D25" t="n">
-        <v>331.2</v>
+        <v>138.78</v>
       </c>
       <c r="E25" t="n">
-        <v>9.16</v>
+        <v>21.392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>117.6</v>
+        <v>138.78</v>
       </c>
       <c r="D26" t="n">
-        <v>158.2</v>
+        <v>174.78</v>
       </c>
       <c r="E26" t="n">
-        <v>20.08</v>
+        <v>18.432</v>
       </c>
     </row>
     <row r="27">
@@ -941,131 +941,131 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>158.2</v>
+        <v>234.3</v>
       </c>
       <c r="D27" t="n">
-        <v>234.3</v>
+        <v>285.2</v>
       </c>
       <c r="E27" t="n">
-        <v>18.04</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>234.3</v>
+        <v>140.1</v>
       </c>
       <c r="D28" t="n">
-        <v>296.3</v>
+        <v>196.72</v>
       </c>
       <c r="E28" t="n">
-        <v>14.96</v>
+        <v>15.408</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47.8</v>
+        <v>196.72</v>
       </c>
       <c r="D29" t="n">
-        <v>112.7</v>
+        <v>232.98</v>
       </c>
       <c r="E29" t="n">
-        <v>21.06</v>
+        <v>12.912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>235.6</v>
+        <v>232.98</v>
       </c>
       <c r="D30" t="n">
-        <v>296.66</v>
+        <v>285.28</v>
       </c>
       <c r="E30" t="n">
-        <v>12.964</v>
+        <v>9.792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>282.46</v>
+        <v>251.02</v>
       </c>
       <c r="D31" t="n">
-        <v>330.9</v>
+        <v>291.54</v>
       </c>
       <c r="E31" t="n">
-        <v>8.24</v>
+        <v>11.496</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>345.54</v>
+        <v>285.2</v>
       </c>
       <c r="D32" t="n">
-        <v>427.16</v>
+        <v>333.3</v>
       </c>
       <c r="E32" t="n">
-        <v>3.704</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>330.9</v>
+        <v>285.28</v>
       </c>
       <c r="D33" t="n">
-        <v>387.94</v>
+        <v>356.98</v>
       </c>
       <c r="E33" t="n">
-        <v>4.656</v>
+        <v>6.712</v>
       </c>
     </row>
     <row r="34">
@@ -1074,79 +1074,79 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>112.7</v>
+        <v>281.8</v>
       </c>
       <c r="D34" t="n">
-        <v>166.36</v>
+        <v>330.46</v>
       </c>
       <c r="E34" t="n">
-        <v>17.804</v>
+        <v>8.284000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>166.36</v>
+        <v>346.94</v>
       </c>
       <c r="D35" t="n">
-        <v>211.7</v>
+        <v>410.52</v>
       </c>
       <c r="E35" t="n">
-        <v>14.9</v>
+        <v>7.348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211.7</v>
+        <v>356.98</v>
       </c>
       <c r="D36" t="n">
-        <v>261.4</v>
+        <v>433.68</v>
       </c>
       <c r="E36" t="n">
-        <v>11.06</v>
+        <v>2.632</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>296.66</v>
+        <v>333.3</v>
       </c>
       <c r="D37" t="n">
-        <v>342.46</v>
+        <v>408.1</v>
       </c>
       <c r="E37" t="n">
-        <v>10.004</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>261.4</v>
+        <v>410.52</v>
       </c>
       <c r="D38" t="n">
-        <v>335.18</v>
+        <v>454.5</v>
       </c>
       <c r="E38" t="n">
-        <v>8.772</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>427.16</v>
+        <v>291.54</v>
       </c>
       <c r="D39" t="n">
-        <v>480.74</v>
+        <v>326.6</v>
       </c>
       <c r="E39" t="n">
-        <v>0.456</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>480.74</v>
+        <v>330.46</v>
       </c>
       <c r="D40" t="n">
-        <v>576.33</v>
+        <v>421.12</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>4.808</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>387.94</v>
+        <v>326.6</v>
       </c>
       <c r="D41" t="n">
-        <v>445.24</v>
+        <v>380.44</v>
       </c>
       <c r="E41" t="n">
-        <v>1.536</v>
+        <v>5.376</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>445.24</v>
+        <v>454.5</v>
       </c>
       <c r="D42" t="n">
-        <v>514.17</v>
+        <v>502.12</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>2.408</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>335.18</v>
+        <v>174.78</v>
       </c>
       <c r="D43" t="n">
-        <v>376.78</v>
+        <v>250.48</v>
       </c>
       <c r="E43" t="n">
-        <v>6.252</v>
+        <v>13.952</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>514.17</v>
+        <v>380.44</v>
       </c>
       <c r="D44" t="n">
-        <v>583.03</v>
+        <v>421.04</v>
       </c>
       <c r="E44" t="n">
-        <v>27.264</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>342.46</v>
+        <v>421.04</v>
       </c>
       <c r="D45" t="n">
-        <v>404.42</v>
+        <v>484.13</v>
       </c>
       <c r="E45" t="n">
-        <v>7.408</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>296.3</v>
+        <v>250.48</v>
       </c>
       <c r="D46" t="n">
-        <v>359.64</v>
+        <v>308.48</v>
       </c>
       <c r="E46" t="n">
-        <v>11.736</v>
+        <v>9.792</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>331.2</v>
+        <v>433.68</v>
       </c>
       <c r="D47" t="n">
-        <v>379.9</v>
+        <v>495.42</v>
       </c>
       <c r="E47" t="n">
-        <v>6.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
@@ -1340,131 +1340,131 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>379.9</v>
+        <v>495.42</v>
       </c>
       <c r="D48" t="n">
-        <v>439.9</v>
+        <v>548.72</v>
       </c>
       <c r="E48" t="n">
-        <v>3.02</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>404.42</v>
+        <v>408.1</v>
       </c>
       <c r="D49" t="n">
-        <v>473.64</v>
+        <v>471.54</v>
       </c>
       <c r="E49" t="n">
-        <v>3.096</v>
+        <v>4.816</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>583.03</v>
+        <v>471.54</v>
       </c>
       <c r="D50" t="n">
-        <v>649.1900000000001</v>
+        <v>528.14</v>
       </c>
       <c r="E50" t="n">
-        <v>24.768</v>
+        <v>2.776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>376.78</v>
+        <v>308.48</v>
       </c>
       <c r="D51" t="n">
-        <v>467.58</v>
+        <v>362.12</v>
       </c>
       <c r="E51" t="n">
-        <v>1.752</v>
+        <v>6.568</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>467.58</v>
+        <v>362.12</v>
       </c>
       <c r="D52" t="n">
-        <v>570.38</v>
+        <v>421.52</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>2.248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>576.33</v>
+        <v>421.12</v>
       </c>
       <c r="D53" t="n">
-        <v>645.21</v>
+        <v>488.06</v>
       </c>
       <c r="E53" t="n">
-        <v>27.272</v>
+        <v>1.224</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>359.64</v>
+        <v>488.06</v>
       </c>
       <c r="D54" t="n">
-        <v>451.06</v>
+        <v>567.3099999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>7.704</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
